--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2917489.7159998</v>
+        <v>3023563.314152644</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8527601.459471866</v>
+        <v>8542753.374599596</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>227.9513547492342</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>208.7348846921212</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>93.36818880297471</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>24.28294625218508</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>142.6982830136701</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84399365306222</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.46300148699181</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0.3351271419553631</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>94.00928821139574</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>20.21682288978586</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>103.3794219691639</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>122.6028762599956</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.1303830823241</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>127.8153769208905</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>77.93612009725614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>114.5006452705931</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576171</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>39.19314274110837</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.36993339924462</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7058473537595</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2098.94140762926</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="C2" t="n">
-        <v>1729.978890688848</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.713192082098</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>985.9249394838532</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>574.9390346942457</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605071</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.94140762926</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.3660221513988</v>
+        <v>866.1683308827404</v>
       </c>
       <c r="C4" t="n">
-        <v>188.3660221513988</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D4" t="n">
-        <v>188.3660221513988</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>188.3660221513988</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>188.3660221513988</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>188.3660221513988</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251686</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251686</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816385</v>
+        <v>1047.81679571298</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2098.94140762926</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="C5" t="n">
-        <v>1729.978890688848</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.713192082098</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E5" t="n">
-        <v>985.9249394838532</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>574.9390346942457</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>159.8665845392422</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.1638263336251</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="C7" t="n">
-        <v>504.1638263336251</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>672.6975534624434</v>
       </c>
       <c r="X7" t="n">
-        <v>906.604870307395</v>
+        <v>672.6975534624434</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.8122911638649</v>
+        <v>451.9049743189132</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1327.109847509766</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3099.207040771387</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2768.144153427816</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>880.8839692864693</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>880.8839692864693</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424045</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424045</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>526.5658826424045</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5500,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5534,16 +5536,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232836</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>2837.481655208336</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>2837.481655208336</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>2837.481655208336</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2690.591707710425</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>4503.800315021996</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4112.268354578271</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3822.85118454131</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3594.861633643293</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>762.547769317909</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7309,16 +7311,16 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7391,43 +7393,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.5813165460164</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>385.6451336181095</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.790261293512</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.188796316454</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.113569660651</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1474.429081454764</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1185.011911417804</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>957.0223605197863</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.2297813762561</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.81817176293566</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.70159709961322</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>37.70876137137834</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9445005827196</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.24553961896774</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2878198583893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>40.32043864788506</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746866.8644230153</v>
+        <v>754591.3701744074</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746866.8644230153</v>
+        <v>754591.3701744074</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365052</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309556</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309561</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744238</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26451,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744248</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-826707.4730674404</v>
+        <v>-645326.1886081069</v>
       </c>
       <c r="C6" t="n">
-        <v>502037.2726601518</v>
+        <v>469425.5949678129</v>
       </c>
       <c r="D6" t="n">
-        <v>502037.2726601519</v>
+        <v>309410.132219814</v>
       </c>
       <c r="E6" t="n">
-        <v>250812.3617134986</v>
+        <v>250812.3617134991</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208541</v>
+        <v>576224.8235208546</v>
       </c>
       <c r="G6" t="n">
+        <v>576224.8235208542</v>
+      </c>
+      <c r="H6" t="n">
+        <v>576224.8235208542</v>
+      </c>
+      <c r="I6" t="n">
         <v>576224.8235208543</v>
       </c>
-      <c r="H6" t="n">
-        <v>576224.8235208545</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>408619.6457108716</v>
+      </c>
+      <c r="K6" t="n">
         <v>576224.8235208542</v>
       </c>
-      <c r="J6" t="n">
-        <v>358693.6211235764</v>
-      </c>
-      <c r="K6" t="n">
-        <v>576224.8235208543</v>
-      </c>
       <c r="L6" t="n">
-        <v>576224.8235208543</v>
+        <v>527930.8535126634</v>
       </c>
       <c r="M6" t="n">
-        <v>491169.7955853427</v>
+        <v>491169.7955853425</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208543</v>
+        <v>576224.8235208546</v>
       </c>
       <c r="O6" t="n">
         <v>576224.8235208543</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208541</v>
+        <v>576224.8235208545</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>137.3215370217734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.1868409613322</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>73.87863229565312</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4720686621357</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>239.2320870585916</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>243.7637707342582</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>124.1524715312206</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.1878711946356</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>287.921081860866</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>230.7783490691161</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>63.86739912946396</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-4.303443726367004e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>379.4203056753698</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>316.2462973459351</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189577</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>285.886712892598</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,25 +33742,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189581</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>237.2862717533515</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.2645232599136</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36928,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969398</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3023563.314152644</v>
+        <v>3019467.672647879</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8542753.374599596</v>
+        <v>8542753.374599595</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>227.9513547492342</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>89.23708342281483</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>93.36818880297471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>142.6982830136701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>56.02027799799351</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>176.1581058090401</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3351271419553631</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>94.00928821139574</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>132.5319226158848</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>103.3794219691639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>114.4746095917495</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>251.7801198313585</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>127.8153769208905</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.5006452705931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>58.24570521548653</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.618935688523</v>
+        <v>618.7448086255756</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>618.7448086255756</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>618.7448086255756</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>618.7448086255756</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>207.7589038359681</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y2" t="n">
-        <v>1918.618935688523</v>
+        <v>1005.344648689697</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>866.1683308827404</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>771.8570290615538</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.81679571298</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1047.81679571298</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.34282005186</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.34282005186</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.07712144511</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2505.753189008243</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2297.007547614068</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2043.426486878247</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2043.426486878247</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>2043.426486878247</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>2043.426486878247</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.34282005186</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.9049743189132</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9049743189132</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1458.508639459305</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329316</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270447</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W7" t="n">
-        <v>672.6975534624434</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X7" t="n">
-        <v>672.6975534624434</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>451.9049743189132</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1685.375546116517</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.109847509766</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.8839692864693</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>978.4591041917437</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.8839692864693</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,16 +5044,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5697,7 +5697,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
         <v>2254.869721166297</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192571</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136243</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2837.481655208336</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>2837.481655208336</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2837.481655208336</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2690.591707710425</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>800.6374272687975</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143853</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>34.74287850523245</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>37.70876137137834</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
@@ -26325,13 +26325,13 @@
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744344</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26456,7 +26456,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744248</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-645326.1886081069</v>
       </c>
       <c r="C6" t="n">
-        <v>469425.5949678129</v>
+        <v>469425.5949678132</v>
       </c>
       <c r="D6" t="n">
         <v>309410.132219814</v>
       </c>
       <c r="E6" t="n">
-        <v>250812.3617134991</v>
+        <v>250464.9824591419</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208546</v>
+        <v>575877.4442664976</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="J6" t="n">
-        <v>408619.6457108716</v>
+        <v>408272.2664565146</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664974</v>
       </c>
       <c r="L6" t="n">
-        <v>527930.8535126634</v>
+        <v>527583.4742583067</v>
       </c>
       <c r="M6" t="n">
-        <v>491169.7955853425</v>
+        <v>490822.4163309854</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208546</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208545</v>
+        <v>575877.4442664974</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>137.3215370217734</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>322.3106193501392</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87863229565312</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>182.4085303613876</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>239.2320870585916</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>67.43193740080088</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.50435455269738</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.1878711946356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>287.921081860866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>253.7060160401688</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>63.86739912946396</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>111.2350457972877</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.303443726367004e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.886712892598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.3582339884385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3019467.672647879</v>
+        <v>3021228.202950663</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>89.23708342281483</v>
+        <v>365.7848680240198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>141.0108249680839</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>20.75054951475587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.02027799799351</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -955,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>176.1581058090401</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="Y8" t="n">
-        <v>132.5319226158848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4312223122552</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>251.7801198313585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543527</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10.74993283584316</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>51.3656974031032</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>1.294096136280905</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618.7448086255756</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="C2" t="n">
-        <v>618.7448086255756</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="D2" t="n">
-        <v>618.7448086255756</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="E2" t="n">
-        <v>618.7448086255756</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="F2" t="n">
-        <v>207.7589038359681</v>
+        <v>487.1001004028417</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.483980665509</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1005.344648689697</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>494.8571886179237</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>83.87128382831611</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>72.20693759300904</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>72.20693759300904</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2505.753189008243</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2297.007547614068</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2043.426486878247</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2043.426486878247</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2043.426486878247</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>2043.426486878247</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1653.287154902436</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1458.508639459305</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
         <v>280.8495004245697</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>604.4387941280866</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602305</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429802</v>
@@ -5904,58 +5904,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>643.5829084413765</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>495.6698148589834</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,37 +7095,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2445.655915765836</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2262.80108142074</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976875</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>28.00274033431394</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.74287850523245</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1584408891656</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>65.08115057384076</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744217</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744237</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744348</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645326.1886081069</v>
+        <v>-645326.1886081068</v>
       </c>
       <c r="C6" t="n">
-        <v>469425.5949678132</v>
+        <v>469425.594967813</v>
       </c>
       <c r="D6" t="n">
-        <v>309410.132219814</v>
+        <v>309410.1322198141</v>
       </c>
       <c r="E6" t="n">
-        <v>250464.9824591419</v>
+        <v>250777.6237880628</v>
       </c>
       <c r="F6" t="n">
-        <v>575877.4442664976</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="G6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="H6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954189</v>
       </c>
       <c r="I6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="J6" t="n">
-        <v>408272.2664565146</v>
+        <v>408584.9077854358</v>
       </c>
       <c r="K6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="L6" t="n">
-        <v>527583.4742583067</v>
+        <v>527896.1155872279</v>
       </c>
       <c r="M6" t="n">
-        <v>490822.4163309854</v>
+        <v>491135.0576599067</v>
       </c>
       <c r="N6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="O6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="P6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954187</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>322.3106193501392</v>
+        <v>45.76283474893421</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>79.73787102912803</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.4085303613876</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.95936315771462</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>67.43193740080088</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.50435455269738</v>
+        <v>151.3613353340879</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.7060160401688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.818470993273997e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551096</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>175.6052721551104</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>592.5148541563232</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>489.4415840126426</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075059</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
